--- a/Dataset/Folds/Fold_5/Excel/73.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="802">
   <si>
     <t>Doi</t>
   </si>
@@ -2429,6 +2429,299 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                            Antoon%Bronselaer%NULL%1,                            James T.%Teo%NULL%1,                            Geert%Byttebier%NULL%1,                            Guy%De Tré%NULL%1,                            Luc%Belmans%NULL%1,                            Richard%Dobson%NULL%1,                            Evelien%Wynendaele%NULL%1,                            Christophe%Van De Wiele%NULL%1,                            Filip%Vandaele%NULL%1,                            Diemer%Van Dijck%NULL%1,                            Dan%Bean%NULL%1,                            David%Fedson%NULL%1,                            Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                             Juhee%Ahn%ahnjuhee23@gmail.com%1,                             Juhong%Park%parkjh@nhis.or.kr%1,                             Chang%Kyung Kang%zeptemiger@hanmail.net%1,                             Sung-Ho%Won%sunghow@gmail.com%1,                             Dong%Wook Kim%kimdw2269@gmail.com%1,                             Jong-Heon%Park%parkjh@nhis.or.kr%1,                             Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                             Joon-Sung%Joh%ssabana777@gmail.com%1,                             Ji Hwan%Bang%roundbirch@gmail.com%1,                             Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                             Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                             Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                             Tania%Dehesh%NULL%1,                             Farnaz%Aligolighasemabadi%NULL%1,                             Mohammadamin%Sadeghdoust%NULL%1,                             Katarzyna%Kotfis%NULL%1,                             Mazaher%Ahmadi%NULL%1,                             Parvaneh%Mehrbod%NULL%1,                             Pooya%Iranpour%NULL%1,                             Sanaz%Dastghaib%NULL%1,                             Ahmad%Nasimian%NULL%1,                             Amir%Ravandi%NULL%1,                             Biniam%Kidane%NULL%1,                             Naseer%Ahmed%NULL%1,                             Pawan%Sharma%NULL%1,                             Shahla%Shojaei%NULL%1,                             Kamran%Bagheri Lankarani%NULL%1,                             Andrzej%Madej%NULL%1,                             Nima%Rezaei%NULL%1,                             Tayyebeh%Madrakian%NULL%1,                             Marek J.%Los%NULL%1,                             Hagar Ibrahim%Labouta%NULL%1,                             Pooneh%Mokarram%NULL%1,                             Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                             Tao%Guo%NULL%1,                             Feifei%Yan%NULL%1,                             Ming%Gong%NULL%1,                             Xin A.%Zhang%NULL%1,                             Chenze%Li%NULL%1,                             Tao%He%NULL%0,                             Huimin%Luo%NULL%1,                             Lin%Zhang%NULL%0,                             Ming%Chen%NULL%0,                             Xiaoyan%Wu%NULL%0,                             Hairong%Wang%NULL%0,                             Ke-Qiong%Deng%NULL%1,                             Jiao%Bai%NULL%1,                             Lin%Cai%NULL%1,                             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                             Thomas Alexander%Gerds%NULL%2,                             Thomas Alexander%Gerds%NULL%0,                             Morten%Schou%NULL%1,                             Kristian%Kragholm%NULL%1,                             Matthew%Phelps%NULL%1,                             Eva%Havers-Borgersen%NULL%1,                             Adelina%Yafasova%NULL%1,                             Gunnar Hilmar%Gislason%NULL%1,                             Christian%Torp-Pedersen%NULL%1,                             Lars%Køber%NULL%1,                             Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                             Eudald%Correig%NULL%1,                             Cèlia%Rodríguez-Borjabad%NULL%1,                             Eva%Anoro%NULL%1,                             Juan Antonio%Arroyo%NULL%1,                             Carlos%Jericó%NULL%1,                             Angels%Pedragosa%NULL%1,                             Marcel·la%Miret%NULL%1,                             Silvia%Näf%NULL%1,                             Anna%Pardo%NULL%1,                             Verónica%Perea%NULL%1,                             Rosa%Pérez-Bernalte%NULL%1,                             Núria%Plana%NULL%1,                             Rafael%Ramírez-Montesinos%NULL%1,                             Meritxell%Royuela%NULL%1,                             Cristina%Soler%NULL%1,                             Maria%Urquizu-Padilla%NULL%1,                             Alberto%Zamora%NULL%1,                             Juan%Pedro-Botet%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                             Francesco%Castagna%NULL%2,                             Francesco%Castagna%NULL%0,                             Ilir%Agalliu%NULL%2,                             Ilir%Agalliu%NULL%0,                             Xiaonan%Xue%NULL%2,                             Xiaonan%Xue%NULL%0,                             Snehal R.%Patel%NULL%1,                             Yogita%Rochlani%NULL%1,                             Rachna%Kataria%NULL%1,                             Sasa%Vukelic%NULL%1,                             Daniel B.%Sims%NULL%1,                             Chikezie%Alvarez%NULL%1,                             Mercedes%Rivas‐Lasarte%NULL%2,                             Mercedes%Rivas‐Lasarte%NULL%0,                             Mario J.%Garcia%NULL%2,                             Mario J.%Garcia%NULL%0,                             Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                             Daniela Patricia%Trelles-Garcia%NULL%2,                             Daniela Patricia%Trelles-Garcia%NULL%0,                             Maria Adriana%Yanez-Bello%NULL%1,                             Chul Won%Chung%NULL%1,                             Valeria Patricia%Trelles-Garcia%NULL%1,                             Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                             Juan-Juan%Qin%NULL%1,                             Xu%Cheng%NULL%1,                             Lijun%Shen%NULL%1,                             Yan-Ci%Zhao%NULL%1,                             Yufeng%Yuan%NULL%1,                             Fang%Lei%NULL%1,                             Ming-Ming%Chen%NULL%1,                             Huilin%Yang%NULL%1,                             Liangjie%Bai%NULL%1,                             Xiaohui%Song%NULL%1,                             Lijin%Lin%NULL%1,                             Meng%Xia%NULL%1,                             Feng%Zhou%NULL%1,                             Jianghua%Zhou%NULL%1,                             Zhi-Gang%She%NULL%1,                             Lihua%Zhu%NULL%1,                             Xinliang%Ma%NULL%1,                             Qingbo%Xu%NULL%1,                             Ping%Ye%NULL%1,                             Guohua%Chen%NULL%1,                             Liming%Liu%NULL%1,                             Weiming%Mao%NULL%1,                             Youqin%Yan%NULL%1,                             Bing%Xiao%NULL%1,                             Zhigang%Lu%NULL%1,                             Gang%Peng%NULL%1,                             Mingyu%Liu%NULL%1,                             Jun%Yang%NULL%1,                             Luyu%Yang%NULL%1,                             Changjiang%Zhang%NULL%1,                             Haofeng%Lu%NULL%1,                             Xigang%Xia%NULL%1,                             Daihong%Wang%NULL%1,                             Xiaofeng%Liao%NULL%1,                             Xiang%Wei%NULL%1,                             Bing-Hong%Zhang%NULL%1,                             Xin%Zhang%NULL%2,                             Juan%Yang%NULL%1,                             Guang-Nian%Zhao%NULL%1,                             Peng%Zhang%NULL%0,                             Peter P.%Liu%NULL%1,                             Rohit%Loomba%NULL%1,                             Yan-Xiao%Ji%NULL%1,                             Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                             Yibin%Wang%yibinwang@mednet.ucla.edu%1,                             Jingjing%Cai%caijingjing83@hotmail.com%1,                             Jiao%Guo%guoj@gdpu.edu.cn%1,                             Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                             Robert%DeJoy%NULL%1,                             Kevin Bryan%Lo%NULL%0,                             Jeri%Albano%NULL%0,                             Eric%Peterson%NULL%0,                             Ruchika%Bhargav%NULL%0,                             Fahad%Gu%NULL%1,                             Grace%Salacup%NULL%1,                             Jerald%Pelayo%NULL%0,                             Zurab%Azmaiparashvili%NULL%0,                             Janani%Rangaswami%NULL%0,                             Gabriel%Patarroyo-Aponte%NULL%1,                             Sadia%Benzaquen%NULL%0,                             Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                             Luke%Wooster%NULL%1,                             Haakon H.%Sigurslid%NULL%1,                             Rebecca H.%Li%NULL%1,                             Wanlin%Jiang%NULL%1,                             Wenjie%Tian%NULL%1,                             Christian L.%Lino Cardenas%NULL%1,                             Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                             Mahesh V.%Madhavan%NULL%2,                             Mahesh V.%Madhavan%NULL%0,                             Timothy J.%Poterucha%NULL%2,                             Timothy J.%Poterucha%NULL%0,                             Ersilia M.%DeFilippis%NULL%1,                             Jessica A.%Hennessey%NULL%1,                             Bjorn%Redfors%NULL%1,                             Christina%Eckhardt%NULL%1,                             Behnood%Bikdeli%NULL%1,                             Jonathan%Platt%NULL%1,                             Ani%Nalbandian%NULL%1,                             Pierre%Elias%NULL%2,                             Pierre%Elias%NULL%0,                             Matthew J.%Cummings%NULL%2,                             Matthew J.%Cummings%NULL%0,                             Shayan N.%Nouri%NULL%1,                             Matthew%Lawlor%NULL%1,                             Lauren S.%Ranard%NULL%1,                             Jianhua%Li%NULL%2,                             Jianhua%Li%NULL%0,                             Claudia%Boyle%NULL%1,                             Raymond%Givens%NULL%1,                             Daniel%Brodie%NULL%0,                             Harlan M.%Krumholz%NULL%2,                             Harlan M.%Krumholz%NULL%0,                             Gregg W.%Stone%NULL%2,                             Gregg W.%Stone%NULL%0,                             Sanjum S.%Sethi%NULL%1,                             Daniel%Burkhoff%NULL%1,                             Nir%Uriel%NULL%1,                             Allan%Schwartz%NULL%0,                             Martin B.%Leon%NULL%1,                             Ajay J.%Kirtane%NULL%1,                             Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                             Sahil A.%Parikh%NULL%2,                             Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                             Louis%Potier%NULL%2,                             Louis%Potier%NULL%0,                             Pierre%Gourdy%NULL%2,                             Pierre%Gourdy%NULL%0,                             Matthieu%Pichelin%NULL%2,                             Matthieu%Pichelin%NULL%0,                             Coralie%Amadou%NULL%2,                             Coralie%Amadou%NULL%0,                             Pierre-Yves%Benhamou%NULL%2,                             Pierre-Yves%Benhamou%NULL%0,                             Jean-Baptiste%Bonnet%NULL%1,                             Lyse%Bordier%NULL%1,                             Olivier%Bourron%NULL%1,                             Claude%Chaumeil%NULL%2,                             Claude%Chaumeil%NULL%0,                             Nicolas%Chevalier%NULL%1,                             Patrice%Darmon%NULL%2,                             Patrice%Darmon%NULL%0,                             Blandine%Delenne%NULL%2,                             Blandine%Delenne%NULL%0,                             Delphine%Demarsy%NULL%1,                             Marie%Dumas%NULL%1,                             Olivier%Dupuy%NULL%1,                             Anna%Flaus-Furmaniuk%NULL%2,                             Anna%Flaus-Furmaniuk%NULL%0,                             Jean-François%Gautier%NULL%1,                             Anne-Marie%Guedj%NULL%2,                             Anne-Marie%Guedj%NULL%0,                             Nathalie%Jeandidier%NULL%1,                             Etienne%Larger%NULL%1,                             Jean-Philippe%Le Berre%NULL%1,                             Myriam%Lungo%NULL%1,                             Nathanaëlle%Montanier%NULL%1,                             Philippe%Moulin%NULL%1,                             Françoise%Plat%NULL%1,                             Vincent%Rigalleau%NULL%1,                             René%Robert%NULL%1,                             Dominique%Seret-Bégué%NULL%2,                             Dominique%Seret-Bégué%NULL%0,                             Pierre%Sérusclat%NULL%1,                             Sarra%Smati%NULL%1,                             Jean-François%Thébaut%NULL%1,                             Blandine%Tramunt%NULL%2,                             Blandine%Tramunt%NULL%0,                             Camille%Vatier%NULL%1,                             Fritz-Line%Velayoudom%NULL%2,                             Fritz-Line%Velayoudom%NULL%0,                             Bruno%Vergès%NULL%1,                             Patrice%Winiszewski%NULL%1,                             Audrey%Zabulon%NULL%1,                             Pierre-Antoine%Gourraud%NULL%1,                             Ronan%Roussel%NULL%2,                             Ronan%Roussel%NULL%0,                             Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                             Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                             Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                             In-Ae%Song%NULL%1,                             Young-Tae%Jeon%NULL%1,                             Philip P.%Foster%NULL%2,                             Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                             Marco%Schiavone%NULL%1,                             Antonio%Curnis%NULL%1,                             Marcello%Arca%NULL%1,                             Spinello%Antinori%NULL%1,                             Alessio%Gasperetti%NULL%1,                             Giosuè%Mascioli%NULL%1,                             Paolo%Severino%NULL%1,                             Federica%Sabato%NULL%1,                             Maria M.%Caracciolo%NULL%1,                             Gianmarco%Arabia%NULL%1,                             Laura%D'Erasmo%NULL%1,                             Maurizio%Viecca%NULL%1,                             Massimo%Mancone%NULL%1,                             Massimo%Galli%NULL%1,                             Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                             Zhun%Cao%NULL%1,                             Jake%Gundrum%NULL%1,                             Jim%Sianis%NULL%1,                             Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                             Michele%Ciccarelli%NULL%0,                             Michele%Ciccarelli%NULL%0,                             Dario%Bruzzese%NULL%1,                             Andrea%Dipasquale%NULL%1,                             Andrea G.%Lania%NULL%1,                             Gherardo%Mazziotti%NULL%1,                             Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                             Kathy W.%Belk%NULL%1,                             Michael%Topmiller%NULL%1,                             Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                             Sarah B.%Hays%NULL%1,                             Constance E.%Panton%NULL%2,                             Constance E.%Panton%NULL%0,                             Evangelia K.%Mylona%NULL%1,                             Markos%Kalligeros%NULL%1,                             Fadi%Shehadeh%NULL%1,                             Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                             Amy M.%Sitapati%NULL%1,                             Jing%Zhang%NULL%1,                             Jingjing%Zou%NULL%1,                             Quan M.%Bui%NULL%1,                             Junting%Ren%NULL%1,                             Christopher A.%Longhurst%NULL%1,                             Michael H.%Criqui%NULL%1,                             Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                             Antoon%Bronselaer%NULL%1,                             James T.%Teo%NULL%1,                             Geert%Byttebier%NULL%1,                             Guy%De Tré%NULL%1,                             Luc%Belmans%NULL%1,                             Richard%Dobson%NULL%1,                             Evelien%Wynendaele%NULL%1,                             Christophe%Van De Wiele%NULL%1,                             Filip%Vandaele%NULL%1,                             Diemer%Van Dijck%NULL%1,                             Dan%Bean%NULL%1,                             David%Fedson%NULL%1,                             Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                              Juhee%Ahn%ahnjuhee23@gmail.com%1,                              Juhong%Park%parkjh@nhis.or.kr%1,                              Chang%Kyung Kang%zeptemiger@hanmail.net%1,                              Sung-Ho%Won%sunghow@gmail.com%1,                              Dong%Wook Kim%kimdw2269@gmail.com%1,                              Jong-Heon%Park%parkjh@nhis.or.kr%1,                              Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                              Joon-Sung%Joh%ssabana777@gmail.com%1,                              Ji Hwan%Bang%roundbirch@gmail.com%1,                              Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                              Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                              Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                              Tania%Dehesh%NULL%1,                              Farnaz%Aligolighasemabadi%NULL%1,                              Mohammadamin%Sadeghdoust%NULL%1,                              Katarzyna%Kotfis%NULL%1,                              Mazaher%Ahmadi%NULL%1,                              Parvaneh%Mehrbod%NULL%1,                              Pooya%Iranpour%NULL%1,                              Sanaz%Dastghaib%NULL%1,                              Ahmad%Nasimian%NULL%1,                              Amir%Ravandi%NULL%1,                              Biniam%Kidane%NULL%1,                              Naseer%Ahmed%NULL%1,                              Pawan%Sharma%NULL%1,                              Shahla%Shojaei%NULL%1,                              Kamran%Bagheri Lankarani%NULL%1,                              Andrzej%Madej%NULL%1,                              Nima%Rezaei%NULL%1,                              Tayyebeh%Madrakian%NULL%1,                              Marek J.%Los%NULL%1,                              Hagar Ibrahim%Labouta%NULL%1,                              Pooneh%Mokarram%NULL%1,                              Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                              Tao%Guo%NULL%1,                              Feifei%Yan%NULL%1,                              Ming%Gong%NULL%1,                              Xin A.%Zhang%NULL%1,                              Chenze%Li%NULL%1,                              Tao%He%NULL%0,                              Huimin%Luo%NULL%1,                              Lin%Zhang%NULL%0,                              Ming%Chen%NULL%0,                              Xiaoyan%Wu%NULL%0,                              Hairong%Wang%NULL%0,                              Ke-Qiong%Deng%NULL%1,                              Jiao%Bai%NULL%1,                              Lin%Cai%NULL%1,                              Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                              Thomas Alexander%Gerds%NULL%2,                              Thomas Alexander%Gerds%NULL%0,                              Morten%Schou%NULL%1,                              Kristian%Kragholm%NULL%1,                              Matthew%Phelps%NULL%1,                              Eva%Havers-Borgersen%NULL%1,                              Adelina%Yafasova%NULL%1,                              Gunnar Hilmar%Gislason%NULL%1,                              Christian%Torp-Pedersen%NULL%1,                              Lars%Køber%NULL%1,                              Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                              Eudald%Correig%NULL%1,                              Cèlia%Rodríguez-Borjabad%NULL%1,                              Eva%Anoro%NULL%1,                              Juan Antonio%Arroyo%NULL%1,                              Carlos%Jericó%NULL%1,                              Angels%Pedragosa%NULL%1,                              Marcel·la%Miret%NULL%1,                              Silvia%Näf%NULL%1,                              Anna%Pardo%NULL%1,                              Verónica%Perea%NULL%1,                              Rosa%Pérez-Bernalte%NULL%1,                              Núria%Plana%NULL%1,                              Rafael%Ramírez-Montesinos%NULL%1,                              Meritxell%Royuela%NULL%1,                              Cristina%Soler%NULL%1,                              Maria%Urquizu-Padilla%NULL%1,                              Alberto%Zamora%NULL%1,                              Juan%Pedro-Botet%NULL%1,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                              Francesco%Castagna%NULL%2,                              Francesco%Castagna%NULL%0,                              Ilir%Agalliu%NULL%2,                              Ilir%Agalliu%NULL%0,                              Xiaonan%Xue%NULL%2,                              Xiaonan%Xue%NULL%0,                              Snehal R.%Patel%NULL%1,                              Yogita%Rochlani%NULL%1,                              Rachna%Kataria%NULL%1,                              Sasa%Vukelic%NULL%1,                              Daniel B.%Sims%NULL%1,                              Chikezie%Alvarez%NULL%1,                              Mercedes%Rivas‐Lasarte%NULL%2,                              Mercedes%Rivas‐Lasarte%NULL%0,                              Mario J.%Garcia%NULL%2,                              Mario J.%Garcia%NULL%0,                              Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                              Daniela Patricia%Trelles-Garcia%NULL%2,                              Daniela Patricia%Trelles-Garcia%NULL%0,                              Maria Adriana%Yanez-Bello%NULL%1,                              Chul Won%Chung%NULL%1,                              Valeria Patricia%Trelles-Garcia%NULL%1,                              Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                              Juan-Juan%Qin%NULL%1,                              Xu%Cheng%NULL%1,                              Lijun%Shen%NULL%1,                              Yan-Ci%Zhao%NULL%1,                              Yufeng%Yuan%NULL%1,                              Fang%Lei%NULL%1,                              Ming-Ming%Chen%NULL%1,                              Huilin%Yang%NULL%1,                              Liangjie%Bai%NULL%1,                              Xiaohui%Song%NULL%1,                              Lijin%Lin%NULL%1,                              Meng%Xia%NULL%1,                              Feng%Zhou%NULL%1,                              Jianghua%Zhou%NULL%1,                              Zhi-Gang%She%NULL%1,                              Lihua%Zhu%NULL%1,                              Xinliang%Ma%NULL%1,                              Qingbo%Xu%NULL%1,                              Ping%Ye%NULL%1,                              Guohua%Chen%NULL%1,                              Liming%Liu%NULL%1,                              Weiming%Mao%NULL%1,                              Youqin%Yan%NULL%1,                              Bing%Xiao%NULL%1,                              Zhigang%Lu%NULL%1,                              Gang%Peng%NULL%1,                              Mingyu%Liu%NULL%1,                              Jun%Yang%NULL%1,                              Luyu%Yang%NULL%1,                              Changjiang%Zhang%NULL%1,                              Haofeng%Lu%NULL%1,                              Xigang%Xia%NULL%1,                              Daihong%Wang%NULL%1,                              Xiaofeng%Liao%NULL%1,                              Xiang%Wei%NULL%1,                              Bing-Hong%Zhang%NULL%1,                              Xin%Zhang%NULL%2,                              Juan%Yang%NULL%1,                              Guang-Nian%Zhao%NULL%1,                              Peng%Zhang%NULL%0,                              Peter P.%Liu%NULL%1,                              Rohit%Loomba%NULL%1,                              Yan-Xiao%Ji%NULL%1,                              Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                              Yibin%Wang%yibinwang@mednet.ucla.edu%1,                              Jingjing%Cai%caijingjing83@hotmail.com%1,                              Jiao%Guo%guoj@gdpu.edu.cn%1,                              Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                              Robert%DeJoy%NULL%1,                              Kevin Bryan%Lo%NULL%0,                              Jeri%Albano%NULL%0,                              Eric%Peterson%NULL%0,                              Ruchika%Bhargav%NULL%0,                              Fahad%Gu%NULL%1,                              Grace%Salacup%NULL%1,                              Jerald%Pelayo%NULL%0,                              Zurab%Azmaiparashvili%NULL%0,                              Janani%Rangaswami%NULL%0,                              Gabriel%Patarroyo-Aponte%NULL%1,                              Sadia%Benzaquen%NULL%0,                              Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                              Luke%Wooster%NULL%1,                              Haakon H.%Sigurslid%NULL%1,                              Rebecca H.%Li%NULL%1,                              Wanlin%Jiang%NULL%1,                              Wenjie%Tian%NULL%1,                              Christian L.%Lino Cardenas%NULL%1,                              Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                              Mahesh V.%Madhavan%NULL%2,                              Mahesh V.%Madhavan%NULL%0,                              Timothy J.%Poterucha%NULL%2,                              Timothy J.%Poterucha%NULL%0,                              Ersilia M.%DeFilippis%NULL%1,                              Jessica A.%Hennessey%NULL%1,                              Bjorn%Redfors%NULL%1,                              Christina%Eckhardt%NULL%1,                              Behnood%Bikdeli%NULL%1,                              Jonathan%Platt%NULL%1,                              Ani%Nalbandian%NULL%1,                              Pierre%Elias%NULL%2,                              Pierre%Elias%NULL%0,                              Matthew J.%Cummings%NULL%2,                              Matthew J.%Cummings%NULL%0,                              Shayan N.%Nouri%NULL%1,                              Matthew%Lawlor%NULL%1,                              Lauren S.%Ranard%NULL%1,                              Jianhua%Li%NULL%2,                              Jianhua%Li%NULL%0,                              Claudia%Boyle%NULL%1,                              Raymond%Givens%NULL%1,                              Daniel%Brodie%NULL%0,                              Harlan M.%Krumholz%NULL%2,                              Harlan M.%Krumholz%NULL%0,                              Gregg W.%Stone%NULL%2,                              Gregg W.%Stone%NULL%0,                              Sanjum S.%Sethi%NULL%1,                              Daniel%Burkhoff%NULL%1,                              Nir%Uriel%NULL%1,                              Allan%Schwartz%NULL%0,                              Martin B.%Leon%NULL%1,                              Ajay J.%Kirtane%NULL%1,                              Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                              Sahil A.%Parikh%NULL%2,                              Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                              Louis%Potier%NULL%2,                              Louis%Potier%NULL%0,                              Pierre%Gourdy%NULL%2,                              Pierre%Gourdy%NULL%0,                              Matthieu%Pichelin%NULL%2,                              Matthieu%Pichelin%NULL%0,                              Coralie%Amadou%NULL%2,                              Coralie%Amadou%NULL%0,                              Pierre-Yves%Benhamou%NULL%2,                              Pierre-Yves%Benhamou%NULL%0,                              Jean-Baptiste%Bonnet%NULL%1,                              Lyse%Bordier%NULL%1,                              Olivier%Bourron%NULL%1,                              Claude%Chaumeil%NULL%2,                              Claude%Chaumeil%NULL%0,                              Nicolas%Chevalier%NULL%1,                              Patrice%Darmon%NULL%2,                              Patrice%Darmon%NULL%0,                              Blandine%Delenne%NULL%2,                              Blandine%Delenne%NULL%0,                              Delphine%Demarsy%NULL%1,                              Marie%Dumas%NULL%1,                              Olivier%Dupuy%NULL%1,                              Anna%Flaus-Furmaniuk%NULL%2,                              Anna%Flaus-Furmaniuk%NULL%0,                              Jean-François%Gautier%NULL%1,                              Anne-Marie%Guedj%NULL%2,                              Anne-Marie%Guedj%NULL%0,                              Nathalie%Jeandidier%NULL%1,                              Etienne%Larger%NULL%1,                              Jean-Philippe%Le Berre%NULL%1,                              Myriam%Lungo%NULL%1,                              Nathanaëlle%Montanier%NULL%1,                              Philippe%Moulin%NULL%1,                              Françoise%Plat%NULL%1,                              Vincent%Rigalleau%NULL%1,                              René%Robert%NULL%1,                              Dominique%Seret-Bégué%NULL%2,                              Dominique%Seret-Bégué%NULL%0,                              Pierre%Sérusclat%NULL%1,                              Sarra%Smati%NULL%1,                              Jean-François%Thébaut%NULL%1,                              Blandine%Tramunt%NULL%2,                              Blandine%Tramunt%NULL%0,                              Camille%Vatier%NULL%1,                              Fritz-Line%Velayoudom%NULL%2,                              Fritz-Line%Velayoudom%NULL%0,                              Bruno%Vergès%NULL%1,                              Patrice%Winiszewski%NULL%1,                              Audrey%Zabulon%NULL%1,                              Pierre-Antoine%Gourraud%NULL%1,                              Ronan%Roussel%NULL%2,                              Ronan%Roussel%NULL%0,                              Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                              Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                              Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                              NULL%NULL%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                              In-Ae%Song%NULL%1,                              Young-Tae%Jeon%NULL%1,                              Philip P.%Foster%NULL%2,                              Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                              Marco%Schiavone%NULL%1,                              Antonio%Curnis%NULL%1,                              Marcello%Arca%NULL%1,                              Spinello%Antinori%NULL%1,                              Alessio%Gasperetti%NULL%1,                              Giosuè%Mascioli%NULL%1,                              Paolo%Severino%NULL%1,                              Federica%Sabato%NULL%1,                              Maria M.%Caracciolo%NULL%1,                              Gianmarco%Arabia%NULL%1,                              Laura%D'Erasmo%NULL%1,                              Maurizio%Viecca%NULL%1,                              Massimo%Mancone%NULL%1,                              Massimo%Galli%NULL%1,                              Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                              Zhun%Cao%NULL%1,                              Jake%Gundrum%NULL%1,                              Jim%Sianis%NULL%1,                              Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                              Michele%Ciccarelli%NULL%0,                              Michele%Ciccarelli%NULL%0,                              Dario%Bruzzese%NULL%1,                              Andrea%Dipasquale%NULL%1,                              Andrea G.%Lania%NULL%1,                              Gherardo%Mazziotti%NULL%1,                              Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                              Kathy W.%Belk%NULL%1,                              Michael%Topmiller%NULL%1,                              Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                              Sarah B.%Hays%NULL%1,                              Constance E.%Panton%NULL%2,                              Constance E.%Panton%NULL%0,                              Evangelia K.%Mylona%NULL%1,                              Markos%Kalligeros%NULL%1,                              Fadi%Shehadeh%NULL%1,                              Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                              Amy M.%Sitapati%NULL%1,                              Jing%Zhang%NULL%1,                              Jingjing%Zou%NULL%1,                              Quan M.%Bui%NULL%1,                              Junting%Ren%NULL%1,                              Christopher A.%Longhurst%NULL%1,                              Michael H.%Criqui%NULL%1,                              Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                              Antoon%Bronselaer%NULL%1,                              James T.%Teo%NULL%1,                              Geert%Byttebier%NULL%1,                              Guy%De Tré%NULL%1,                              Luc%Belmans%NULL%1,                              Richard%Dobson%NULL%1,                              Evelien%Wynendaele%NULL%1,                              Christophe%Van De Wiele%NULL%1,                              Filip%Vandaele%NULL%1,                              Diemer%Van Dijck%NULL%1,                              Dan%Bean%NULL%1,                              David%Fedson%NULL%1,                              Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%0, Juhee%Ahn%ahnjuhee23@gmail.com%1, Juhong%Park%parkjh@nhis.or.kr%1, Chang%Kyung Kang%zeptemiger@hanmail.net%1, Sung-Ho%Won%sunghow@gmail.com%1, Dong%Wook Kim%kimdw2269@gmail.com%1, Jong-Heon%Park%parkjh@nhis.or.kr%1, Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1, Joon-Sung%Joh%ssabana777@gmail.com%1, Ji Hwan%Bang%roundbirch@gmail.com%0, Cheong%Hee Kang%chkangmd@nhis.or.kr%1, Wook%Bum Pyun%pwb423@ewha.ac.kr%1, Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%0, Tania%Dehesh%NULL%1, Farnaz%Aligolighasemabadi%NULL%1, Mohammadamin%Sadeghdoust%NULL%1, Katarzyna%Kotfis%NULL%1, Mazaher%Ahmadi%NULL%1, Parvaneh%Mehrbod%NULL%1, Pooya%Iranpour%NULL%1, Sanaz%Dastghaib%NULL%1, Ahmad%Nasimian%NULL%1, Amir%Ravandi%NULL%1, Biniam%Kidane%NULL%1, Naseer%Ahmed%NULL%1, Pawan%Sharma%NULL%1, Shahla%Shojaei%NULL%1, Kamran%Bagheri Lankarani%NULL%1, Andrzej%Madej%NULL%1, Nima%Rezaei%NULL%1, Tayyebeh%Madrakian%NULL%1, Marek J.%Los%NULL%1, Hagar Ibrahim%Labouta%NULL%1, Pooneh%Mokarram%NULL%1, Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>Background: Statins have multiple protective effects on inflammation, immunity and coagulation, and may help alleviate pneumonia.
+ However, there was no report focusing on the association of statin use with in-hospital outcomes of patients with coronavirus disease 2019 (COVID-19).
+ We investigated the association between the use of statins and in-hospital outcomes of patients with COVID-19.</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%0, Tao%Guo%NULL%0, Feifei%Yan%NULL%1, Ming%Gong%NULL%1, Xin A.%Zhang%NULL%1, Chenze%Li%NULL%0, Tao%He%NULL%0, Huimin%Luo%NULL%1, Lin%Zhang%NULL%0, Ming%Chen%NULL%0, Xiaoyan%Wu%NULL%0, Hairong%Wang%NULL%0, Ke-Qiong%Deng%NULL%0, Jiao%Bai%NULL%1, Lin%Cai%NULL%1, Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%0, Thomas Alexander%Gerds%NULL%2, Thomas Alexander%Gerds%NULL%0, Morten%Schou%NULL%1, Kristian%Kragholm%NULL%1, Matthew%Phelps%NULL%1, Eva%Havers-Borgersen%NULL%1, Adelina%Yafasova%NULL%1, Gunnar Hilmar%Gislason%NULL%1, Christian%Torp-Pedersen%NULL%1, Lars%Køber%NULL%1, Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%0, Eudald%Correig%NULL%1, Cèlia%Rodríguez-Borjabad%NULL%1, Eva%Anoro%NULL%1, Juan Antonio%Arroyo%NULL%1, Carlos%Jericó%NULL%1, Angels%Pedragosa%NULL%1, Marcel·la%Miret%NULL%1, Silvia%Näf%NULL%1, Anna%Pardo%NULL%1, Verónica%Perea%NULL%1, Rosa%Pérez-Bernalte%NULL%1, Núria%Plana%NULL%1, Rafael%Ramírez-Montesinos%NULL%1, Meritxell%Royuela%NULL%1, Cristina%Soler%NULL%1, Maria%Urquizu-Padilla%NULL%1, Alberto%Zamora%NULL%1, Juan%Pedro-Botet%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%0, Francesco%Castagna%NULL%2, Francesco%Castagna%NULL%0, Ilir%Agalliu%NULL%2, Ilir%Agalliu%NULL%0, Xiaonan%Xue%NULL%2, Xiaonan%Xue%NULL%0, Snehal R.%Patel%NULL%1, Yogita%Rochlani%NULL%1, Rachna%Kataria%NULL%1, Sasa%Vukelic%NULL%1, Daniel B.%Sims%NULL%1, Chikezie%Alvarez%NULL%1, Mercedes%Rivas‐Lasarte%NULL%2, Mercedes%Rivas‐Lasarte%NULL%0, Mario J.%Garcia%NULL%2, Mario J.%Garcia%NULL%0, Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%0, Daniela Patricia%Trelles-Garcia%NULL%2, Daniela Patricia%Trelles-Garcia%NULL%0, Maria Adriana%Yanez-Bello%NULL%1, Chul Won%Chung%NULL%1, Valeria Patricia%Trelles-Garcia%NULL%1, Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statins are lipid-lowering therapeutics with favorable anti-inflammatory profiles and have been proposed as an adjunct therapy for COVID-19. However, statins may increase the risk of SARS-CoV-2 viral entry by inducing ACE2 expression.
+ Here, we performed a retrospective study on 13,981 patients with COVID-19 in Hubei Province, China, among which 1,219 received statins.
+ Based on a mixed-effect Cox model after propensity score-matching, we found that the risk for 28-day all-cause mortality was 5.2% and 9.4% in the matched statin and non-statin groups, respectively, with an adjusted hazard ratio of 0.58. The statin use-associated lower risk of mortality was also observed in the Cox time-varying model and marginal structural model analysis.
+ These results give support for the completion of ongoing prospective studies and randomized controlled trials involving statin treatment for COVID-19, which are needed to further validate the utility of this class of drugs to combat the mortality of this pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%0, Juan-Juan%Qin%NULL%0, Xu%Cheng%NULL%0, Lijun%Shen%NULL%1, Yan-Ci%Zhao%NULL%0, Yufeng%Yuan%NULL%0, Fang%Lei%NULL%0, Ming-Ming%Chen%NULL%0, Huilin%Yang%NULL%1, Liangjie%Bai%NULL%1, Xiaohui%Song%NULL%0, Lijin%Lin%NULL%0, Meng%Xia%NULL%0, Feng%Zhou%NULL%0, Jianghua%Zhou%NULL%1, Zhi-Gang%She%NULL%0, Lihua%Zhu%NULL%0, Xinliang%Ma%NULL%0, Qingbo%Xu%NULL%0, Ping%Ye%NULL%0, Guohua%Chen%NULL%1, Liming%Liu%NULL%0, Weiming%Mao%NULL%0, Youqin%Yan%NULL%0, Bing%Xiao%NULL%0, Zhigang%Lu%NULL%1, Gang%Peng%NULL%1, Mingyu%Liu%NULL%0, Jun%Yang%NULL%0, Luyu%Yang%NULL%0, Changjiang%Zhang%NULL%0, Haofeng%Lu%NULL%1, Xigang%Xia%NULL%1, Daihong%Wang%NULL%1, Xiaofeng%Liao%NULL%1, Xiang%Wei%NULL%0, Bing-Hong%Zhang%NULL%0, Xin%Zhang%NULL%0, Juan%Yang%NULL%0, Guang-Nian%Zhao%NULL%1, Peng%Zhang%NULL%0, Peter P.%Liu%NULL%0, Rohit%Loomba%NULL%0, Yan-Xiao%Ji%NULL%0, Jiahong%Xia%jiahong.xia@hust.edu.cn%0, Yibin%Wang%yibinwang@mednet.ucla.edu%0, Jingjing%Cai%caijingjing83@hotmail.com%0, Jiao%Guo%guoj@gdpu.edu.cn%0, Hongliang%Li%lihl@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%0, Robert%DeJoy%NULL%0, Kevin Bryan%Lo%NULL%0, Jeri%Albano%NULL%0, Eric%Peterson%NULL%0, Ruchika%Bhargav%NULL%0, Fahad%Gu%NULL%1, Grace%Salacup%NULL%0, Jerald%Pelayo%NULL%0, Zurab%Azmaiparashvili%NULL%0, Janani%Rangaswami%NULL%0, Gabriel%Patarroyo-Aponte%NULL%0, Sadia%Benzaquen%NULL%0, Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc. on behalf of Southern Society for Clinical Investigation.</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%0, Luke%Wooster%NULL%1, Haakon H.%Sigurslid%NULL%1, Rebecca H.%Li%NULL%1, Wanlin%Jiang%NULL%1, Wenjie%Tian%NULL%1, Christian L.%Lino Cardenas%NULL%1, Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The coronavirus disease 2019 (COVID-19) can result in a hyperinflammatory state, leading to acute respiratory distress syndrome (ARDS), myocardial injury, and thrombotic complications, among other sequelae.
+ Statins, which are known to have anti-inflammatory and antithrombotic properties, have been studied in the setting of other viral infections, but their benefit has not been assessed in COVID-19. This is a retrospective analysis of patients admitted with COVID-19 from February 1st through May 12th, 2020 with study period ending on June 11th, 2020. Antecedent statin use was assessed using medication information available in the electronic medical record.
+ We constructed a multivariable logistic regression model to predict the propensity of receiving statins, adjusting for baseline sociodemographic and clinical characteristics, and outpatient medications.
+ The primary endpoint includes in-hospital mortality within 30 days.
+ A total of 2626 patients were admitted during the study period, of whom 951 (36.2%) were antecedent statin users.
+ Among 1296 patients (648 statin users, 648 non-statin users) identified with 1:1 propensity-score matching, statin use is significantly associated with lower odds of the primary endpoint in the propensity-matched cohort (OR 0.47, 95% CI 0.36–0.62, p &amp;lt; 0.001).
+ We conclude that antecedent statin use in patients hospitalized with COVID-19 is associated with lower inpatient mortality.
+</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%0, Mahesh V.%Madhavan%NULL%2, Mahesh V.%Madhavan%NULL%0, Timothy J.%Poterucha%NULL%2, Timothy J.%Poterucha%NULL%0, Ersilia M.%DeFilippis%NULL%1, Jessica A.%Hennessey%NULL%1, Bjorn%Redfors%NULL%1, Christina%Eckhardt%NULL%1, Behnood%Bikdeli%NULL%1, Jonathan%Platt%NULL%1, Ani%Nalbandian%NULL%1, Pierre%Elias%NULL%2, Pierre%Elias%NULL%0, Matthew J.%Cummings%NULL%2, Matthew J.%Cummings%NULL%0, Shayan N.%Nouri%NULL%1, Matthew%Lawlor%NULL%1, Lauren S.%Ranard%NULL%1, Jianhua%Li%NULL%2, Jianhua%Li%NULL%0, Claudia%Boyle%NULL%1, Raymond%Givens%NULL%1, Daniel%Brodie%NULL%0, Harlan M.%Krumholz%NULL%2, Harlan M.%Krumholz%NULL%0, Gregg W.%Stone%NULL%2, Gregg W.%Stone%NULL%0, Sanjum S.%Sethi%NULL%1, Daniel%Burkhoff%NULL%1, Nir%Uriel%NULL%1, Allan%Schwartz%NULL%0, Martin B.%Leon%NULL%1, Ajay J.%Kirtane%NULL%1, Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1, Sahil A.%Parikh%NULL%2, Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%0, Louis%Potier%NULL%0, Louis%Potier%NULL%0, Pierre%Gourdy%NULL%0, Pierre%Gourdy%NULL%0, Matthieu%Pichelin%NULL%0, Matthieu%Pichelin%NULL%0, Coralie%Amadou%NULL%0, Coralie%Amadou%NULL%0, Pierre-Yves%Benhamou%NULL%2, Pierre-Yves%Benhamou%NULL%0, Jean-Baptiste%Bonnet%NULL%1, Lyse%Bordier%NULL%1, Olivier%Bourron%NULL%0, Claude%Chaumeil%NULL%0, Claude%Chaumeil%NULL%0, Nicolas%Chevalier%NULL%1, Patrice%Darmon%NULL%0, Patrice%Darmon%NULL%0, Blandine%Delenne%NULL%2, Blandine%Delenne%NULL%0, Delphine%Demarsy%NULL%1, Marie%Dumas%NULL%1, Olivier%Dupuy%NULL%1, Anna%Flaus-Furmaniuk%NULL%2, Anna%Flaus-Furmaniuk%NULL%0, Jean-François%Gautier%NULL%0, Anne-Marie%Guedj%NULL%2, Anne-Marie%Guedj%NULL%0, Nathalie%Jeandidier%NULL%1, Etienne%Larger%NULL%0, Jean-Philippe%Le Berre%NULL%1, Myriam%Lungo%NULL%1, Nathanaëlle%Montanier%NULL%1, Philippe%Moulin%NULL%1, Françoise%Plat%NULL%1, Vincent%Rigalleau%NULL%1, René%Robert%NULL%0, Dominique%Seret-Bégué%NULL%2, Dominique%Seret-Bégué%NULL%0, Pierre%Sérusclat%NULL%1, Sarra%Smati%NULL%1, Jean-François%Thébaut%NULL%0, Blandine%Tramunt%NULL%0, Blandine%Tramunt%NULL%0, Camille%Vatier%NULL%0, Fritz-Line%Velayoudom%NULL%2, Fritz-Line%Velayoudom%NULL%0, Bruno%Vergès%NULL%1, Patrice%Winiszewski%NULL%1, Audrey%Zabulon%NULL%1, Pierre-Antoine%Gourraud%NULL%1, Ronan%Roussel%NULL%0, Ronan%Roussel%NULL%0, Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0, Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0, Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>We aimed to investigate whether statin therapy is associated with the incidence of coronavirus disease 2019 (COVID-19) among the South Korean population.
+ In addition, we examined whether statin therapy affects hospital mortality among COVID-19 patients.
+ The National Health Insurance Service (NHIS)-COVID-19 database in South Korea was used for data extraction for this population-based cohort study.
+ A total of 122,040 adult individuals, with 22,633 (18.5%) in the statin therapy group and 101,697 (91.5%) in the control group, were included in the analysis.
+ Among them, 7780 (6.4%) individuals were diagnosed with COVID-19 and hospital mortality occurred in 251 (3.2%) COVID-19 cases.
+ After propensity score matching, logistic regression analysis showed that the odds of developing COVID-19 were 35% lower in the statin therapy group than in the control group (odds ratio: 0.65, 95% confidence interval: 0.60 to 0.71; p &amp;lt; 0.001).
+ Regarding hospital mortality among COVID-19 patients, the multivariable model indicated that there were no differences between the statin therapy and control groups (odds ratio: 0.74, 95% confidence interval: 0.52 to 1.05; p = 0.094).
+ Statin therapy may have potential benefits for the prevention of COVID-19 in South Korea.
+ However, we found that statin therapy does not affect the hospital mortality of patients who are diagnosed with COVID-19.</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0, In-Ae%Song%NULL%0, Young-Tae%Jeon%NULL%1, Philip P.%Foster%NULL%2, Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%0, Marco%Schiavone%NULL%1, Antonio%Curnis%NULL%1, Marcello%Arca%NULL%1, Spinello%Antinori%NULL%0, Alessio%Gasperetti%NULL%1, Giosuè%Mascioli%NULL%1, Paolo%Severino%NULL%1, Federica%Sabato%NULL%1, Maria M.%Caracciolo%NULL%1, Gianmarco%Arabia%NULL%1, Laura%D'Erasmo%NULL%1, Maurizio%Viecca%NULL%1, Massimo%Mancone%NULL%1, Massimo%Galli%NULL%0, Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>National Lipid Association.</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%0, Zhun%Cao%NULL%1, Jake%Gundrum%NULL%1, Jim%Sianis%NULL%1, Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%0, Michele%Ciccarelli%NULL%0, Michele%Ciccarelli%NULL%0, Dario%Bruzzese%NULL%1, Andrea%Dipasquale%NULL%1, Andrea G.%Lania%NULL%1, Gherardo%Mazziotti%NULL%1, Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%0, Kathy W.%Belk%NULL%1, Michael%Topmiller%NULL%1, Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>Columbia Data Analytics, LLC</t>
+  </si>
+  <si>
+    <t>COVID-19 disproportionately affects patients with medical comorbidities such as cardiovascular disease (CVD).
+ Patients with CVD are widely prescribed 3-hydroxy-3-methyl-glutayl-CoA (HMG-CoA) reductase inhibitors (statins), a class of lipid-lowering medications known for their pleiotropic anti-inflammatory and immunomodulatory effects.
+ However, the relationship between statin use and COVID-19 outcomes is not fully understood.
+ In this preliminary study, we explored the association between statin use and severe COVID-19 outcomes in hospitalized patients, including intensive care unit (ICU) admission, the need for invasive mechanical ventilation (IMV), and in-hospital death.
+ We performed a retrospective cohort study of 249 patients hospitalized with COVID-19 from 3 March 2020 to 10 April 2020 in Rhode Island, USA.
+ Patient demographics, past medical history, current medications, and hospital course were recorded and analyzed.
+ A multivariate logistic regression analysis was conducted to examine associations.
+ After adjusting for age, sex, race, cardiovascular disease, chronic pulmonary disease, diabetes, and obesity, statin use was significantly associated with decreased risk for IMV (adjusted Odds Ratio (aOR) = 0.45, 95% Confidence Interval (CI): 0.20–0.99).
+ Our results support the continued use of statins among COVID-19 patients and could have implications for future prospective studies on the management of COVID-19.</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%0, Sarah B.%Hays%NULL%1, Constance E.%Panton%NULL%2, Constance E.%Panton%NULL%0, Evangelia K.%Mylona%NULL%1, Markos%Kalligeros%NULL%1, Fadi%Shehadeh%NULL%1, Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The impact of statins, angiotensin-converting enzyme inhibitors and angiotensin II receptor blockers (ARBs) on coronavirus disease 2019 (COVID-19) severity and recovery is important given their high prevalence of use among individuals at risk for severe COVID-19. We studied the association between use of statin/angiotensin-converting enzyme inhibitors/ARB in the month before hospital admission, with risk of severe outcome, and with time to severe outcome or disease recovery, among patients hospitalized for COVID-19. We performed a retrospective single-center study of all patients hospitalized at University of California San Diego Health between February 10, 2020 and June 17, 2020 (n = 170 hospitalized for COVID-19, n = 5,281 COVID-negative controls).
+ Logistic regression and competing risks analyses were used to investigate progression to severe disease (death or intensive care unit admission), and time to discharge without severe disease.
+ Severe disease occurred in 53% of COVID-positive inpatients.
+ Median time from hospitalization to severe disease was 2 days; median time to recovery was 7 days.
+ Statin use prior to admission was associated with reduced risk of severe COVID-19 (adjusted OR 0.29, 95%CI 0.11 to 0.71, p &amp;lt; 0.01) and faster time to recovery among those without severe disease (adjusted HR for recovery 2.69, 95%CI 1.36 to 5.33, p &amp;lt; 0.01).
+ The association between statin use and severe disease was smaller in the COVID-negative cohort (p for interaction = 0.07).
+ There was potential evidence of faster time to recovery with ARB use (adjusted HR 1.92, 95%CI 0.81 to 4.56).
+ In conclusion, statin use during the 30 days prior to admission for COVID-19 was associated with a lower risk of developing severe COVID-19, and a faster time to recovery among patients without severe disease.
+</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%0, Amy M.%Sitapati%NULL%1, Jing%Zhang%NULL%0, Jingjing%Zou%NULL%1, Quan M.%Bui%NULL%1, Junting%Ren%NULL%1, Christopher A.%Longhurst%NULL%1, Michael H.%Criqui%NULL%1, Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%0, Antoon%Bronselaer%NULL%1, James T.%Teo%NULL%1, Geert%Byttebier%NULL%1, Guy%De Tré%NULL%1, Luc%Belmans%NULL%1, Richard%Dobson%NULL%1, Evelien%Wynendaele%NULL%1, Christophe%Van De Wiele%NULL%1, Filip%Vandaele%NULL%1, Diemer%Van Dijck%NULL%1, Dan%Bean%NULL%1, David%Fedson%NULL%1, Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>AMDA - The Society for Post-Acute and Long-Term Care Medicine.</t>
   </si>
 </sst>
 </file>
@@ -2778,10 +3071,10 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>757</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>758</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2793,10 +3086,10 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3">
@@ -2810,10 +3103,10 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>697</v>
+        <v>760</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2825,10 +3118,10 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>526</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4">
@@ -2842,10 +3135,10 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>762</v>
       </c>
       <c r="E4" t="s">
-        <v>698</v>
+        <v>763</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2857,10 +3150,10 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5">
@@ -2877,7 +3170,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>699</v>
+        <v>765</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2889,10 +3182,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6">
@@ -2909,7 +3202,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>700</v>
+        <v>767</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2921,10 +3214,10 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7">
@@ -2941,7 +3234,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2953,10 +3246,10 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8">
@@ -2967,25 +3260,25 @@
         <v>44105.0</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>702</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>532</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -3005,7 +3298,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>703</v>
+        <v>771</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -3017,10 +3310,10 @@
         <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>526</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10">
@@ -3034,10 +3327,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>772</v>
       </c>
       <c r="E10" t="s">
-        <v>704</v>
+        <v>773</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -3049,10 +3342,10 @@
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11">
@@ -3069,7 +3362,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -3081,10 +3374,10 @@
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12">
@@ -3101,7 +3394,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>706</v>
+        <v>777</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -3113,10 +3406,10 @@
         <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13">
@@ -3130,10 +3423,10 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>779</v>
       </c>
       <c r="E13" t="s">
-        <v>707</v>
+        <v>780</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -3145,10 +3438,10 @@
         <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>526</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14">
@@ -3162,10 +3455,10 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>387</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>708</v>
+        <v>782</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -3177,10 +3470,10 @@
         <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>526</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15">
@@ -3194,10 +3487,10 @@
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>784</v>
       </c>
       <c r="E15" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -3209,10 +3502,10 @@
         <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16">
@@ -3229,7 +3522,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -3241,10 +3534,10 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
     </row>
     <row r="17">
@@ -3261,7 +3554,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -3273,10 +3566,10 @@
         <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18">
@@ -3293,7 +3586,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>712</v>
+        <v>791</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -3305,10 +3598,10 @@
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>526</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19">
@@ -3325,7 +3618,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>713</v>
+        <v>793</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3337,10 +3630,10 @@
         <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20">
@@ -3354,10 +3647,10 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>795</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -3369,10 +3662,10 @@
         <v>127</v>
       </c>
       <c r="I20" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21">
@@ -3386,10 +3679,10 @@
         <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>797</v>
       </c>
       <c r="E21" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -3401,10 +3694,10 @@
         <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22">
@@ -3421,7 +3714,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
@@ -3433,10 +3726,10 @@
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
